--- a/databases/doctors_db.xlsx
+++ b/databases/doctors_db.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ФИО</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,13 +105,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -413,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +441,7 @@
     <col min="1" max="1" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +451,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -445,8 +465,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,8 +479,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -466,6 +492,9 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/databases/doctors_db.xlsx
+++ b/databases/doctors_db.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\diplom\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Учеба\Python программы\diplom-master2\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACD5360-6B9F-4055-BC0B-90B05888506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>ФИО</t>
   </si>
@@ -30,34 +31,31 @@
     <t>Пароль</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Ибрагимова Айгиза Маратовна</t>
+  </si>
+  <si>
+    <t>Иванова Вероника Александровна</t>
+  </si>
+  <si>
+    <t>Тюрин Антон Викторович</t>
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Иванова Вероника</t>
-  </si>
-  <si>
-    <t>Ибрагимова Айгиза</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +123,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -429,16 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -452,18 +450,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -471,13 +469,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -488,10 +486,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>3</v>
